--- a/USBank/USBank_Android_Kotlin_poc.xlsx
+++ b/USBank/USBank_Android_Kotlin_poc.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\245742\Desktop\USBank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kotlin_Templates\USBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Poc" sheetId="1" r:id="rId1"/>
+    <sheet name="Jan22" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Screen Name</t>
   </si>
@@ -177,6 +178,36 @@
       </rPr>
       <t>Proof Of Concept Android libraries</t>
     </r>
+  </si>
+  <si>
+    <t>Anhijit</t>
+  </si>
+  <si>
+    <t>Login Screen</t>
+  </si>
+  <si>
+    <t>Satya</t>
+  </si>
+  <si>
+    <t>DataBinding Issue</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Satish</t>
+  </si>
+  <si>
+    <t>RajaSekahar</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Implement Validation Logic</t>
   </si>
 </sst>
 </file>
@@ -228,15 +259,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -537,44 +568,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -583,10 +614,10 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
@@ -595,7 +626,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -603,17 +634,17 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -622,10 +653,10 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -634,78 +665,78 @@
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -714,10 +745,10 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
@@ -726,41 +757,110 @@
       <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="H15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="4"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="4"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="4"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="4"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="4"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H3:H20"/>
-    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>